--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H2">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I2">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J2">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>94.13785678808451</v>
+        <v>238.5539510824565</v>
       </c>
       <c r="R2">
-        <v>94.13785678808451</v>
+        <v>2146.985559742108</v>
       </c>
       <c r="S2">
-        <v>0.4792256772984921</v>
+        <v>0.5409505719054298</v>
       </c>
       <c r="T2">
-        <v>0.4792256772984921</v>
+        <v>0.5409505719054298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H3">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I3">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J3">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>14.08995894288627</v>
+        <v>35.55696631305245</v>
       </c>
       <c r="R3">
-        <v>14.08995894288627</v>
+        <v>320.012696817472</v>
       </c>
       <c r="S3">
-        <v>0.07172746807602368</v>
+        <v>0.08062981633709926</v>
       </c>
       <c r="T3">
-        <v>0.07172746807602368</v>
+        <v>0.08062981633709926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H4">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I4">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J4">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>45.72768358037496</v>
+        <v>111.3256181644346</v>
       </c>
       <c r="R4">
-        <v>45.72768358037496</v>
+        <v>1001.930563479912</v>
       </c>
       <c r="S4">
-        <v>0.2327849908929526</v>
+        <v>0.252444600227815</v>
       </c>
       <c r="T4">
-        <v>0.2327849908929526</v>
+        <v>0.2524446002278149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H5">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>25.97605936816317</v>
+        <v>4.641424054278666</v>
       </c>
       <c r="R5">
-        <v>25.97605936816317</v>
+        <v>41.772816488508</v>
       </c>
       <c r="S5">
-        <v>0.1322357983173194</v>
+        <v>0.01052500277285204</v>
       </c>
       <c r="T5">
-        <v>0.1322357983173194</v>
+        <v>0.01052500277285204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H6">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>3.887932256831685</v>
+        <v>0.6918139816746666</v>
       </c>
       <c r="R6">
-        <v>3.887932256831685</v>
+        <v>6.226325835072</v>
       </c>
       <c r="S6">
-        <v>0.01979221784563353</v>
+        <v>0.00156877371907258</v>
       </c>
       <c r="T6">
-        <v>0.01979221784563353</v>
+        <v>0.00156877371907258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.100996</v>
+      </c>
+      <c r="H7">
+        <v>0.302988</v>
+      </c>
+      <c r="I7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="J7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.446458</v>
+      </c>
+      <c r="N7">
+        <v>64.33937399999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2888299574473556</v>
+      </c>
+      <c r="P7">
+        <v>0.2888299574473556</v>
+      </c>
+      <c r="Q7">
+        <v>2.166006472167999</v>
+      </c>
+      <c r="R7">
+        <v>19.494058249512</v>
+      </c>
+      <c r="S7">
+        <v>0.004911687417263282</v>
+      </c>
+      <c r="T7">
+        <v>0.004911687417263281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.941521</v>
+      </c>
+      <c r="I8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.95651366666667</v>
+      </c>
+      <c r="N8">
+        <v>137.869541</v>
+      </c>
+      <c r="O8">
+        <v>0.6189188856627118</v>
+      </c>
+      <c r="P8">
+        <v>0.6189188856627118</v>
+      </c>
+      <c r="Q8">
+        <v>29.74184545687344</v>
+      </c>
+      <c r="R8">
+        <v>267.676609111861</v>
+      </c>
+      <c r="S8">
+        <v>0.06744331098442995</v>
+      </c>
+      <c r="T8">
+        <v>0.06744331098442995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="H7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="I7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="J7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.4124537406041</v>
-      </c>
-      <c r="N7">
-        <v>21.4124537406041</v>
-      </c>
-      <c r="O7">
-        <v>0.2970188384625314</v>
-      </c>
-      <c r="P7">
-        <v>0.2970188384625314</v>
-      </c>
-      <c r="Q7">
-        <v>12.61793144628664</v>
-      </c>
-      <c r="R7">
-        <v>12.61793144628664</v>
-      </c>
-      <c r="S7">
-        <v>0.0642338475695788</v>
-      </c>
-      <c r="T7">
-        <v>0.0642338475695788</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.941521</v>
+      </c>
+      <c r="I9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.849914666666667</v>
+      </c>
+      <c r="N9">
+        <v>20.549744</v>
+      </c>
+      <c r="O9">
+        <v>0.09225115688993263</v>
+      </c>
+      <c r="P9">
+        <v>0.09225115688993261</v>
+      </c>
+      <c r="Q9">
+        <v>4.433084391180445</v>
+      </c>
+      <c r="R9">
+        <v>39.897759520624</v>
+      </c>
+      <c r="S9">
+        <v>0.01005256683376079</v>
+      </c>
+      <c r="T9">
+        <v>0.01005256683376079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.941521</v>
+      </c>
+      <c r="I10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.446458</v>
+      </c>
+      <c r="N10">
+        <v>64.33937399999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2888299574473556</v>
+      </c>
+      <c r="P10">
+        <v>0.2888299574473556</v>
+      </c>
+      <c r="Q10">
+        <v>13.87958286087266</v>
+      </c>
+      <c r="R10">
+        <v>124.916245747854</v>
+      </c>
+      <c r="S10">
+        <v>0.03147366980227741</v>
+      </c>
+      <c r="T10">
+        <v>0.0314736698022774</v>
       </c>
     </row>
   </sheetData>
